--- a/index.xlsx
+++ b/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Stockpile/200-Code/arrangeShifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782208F-37D7-AA46-AFFF-94DEB78666BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE84C80A-850D-2047-A25F-CF0917F25363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="860" windowWidth="28100" windowHeight="17140" xr2:uid="{E45E2BF1-4F0D-D245-8DF0-19FAFA1A6B57}"/>
+    <workbookView xWindow="1060" yWindow="800" windowWidth="28100" windowHeight="17140" xr2:uid="{E45E2BF1-4F0D-D245-8DF0-19FAFA1A6B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>姓名</t>
   </si>
@@ -158,6 +158,66 @@
   </si>
   <si>
     <t>周二,周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播音部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,164 +611,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EC650A-A9AC-8241-A909-19C51A18D8EC}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
